--- a/data/trans_orig/P14A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0352F6-333A-40C9-A61E-6AF9A694C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45601EAA-B09F-46C5-888F-E90F45301BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEF6962C-349D-4F79-BECD-86112F765AEB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EB79F90-2C9B-445C-B98D-A32D2D28605E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2012 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>80,38%</t>
   </si>
   <si>
-    <t>28,57%</t>
+    <t>28,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,10 +90,7 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>46,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,43%</t>
+    <t>71,47%</t>
   </si>
   <si>
     <t>29,85%</t>
@@ -117,10 +114,7 @@
     <t>25,45%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
+    <t>53,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,55 +126,55 @@
     <t>70,66%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -189,55 +183,55 @@
     <t>89,83%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -246,25 +240,25 @@
     <t>86,61%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>79,6%</t>
+    <t>78,43%</t>
   </si>
   <si>
     <t>95,39%</t>
@@ -273,19 +267,19 @@
     <t>13,39%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>10,88%</t>
@@ -294,7 +288,7 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>20,4%</t>
+    <t>21,57%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,109 +297,109 @@
     <t>75,48%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -417,295 +411,313 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>19,49%</t>
+    <t>18,39%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>72,1%</t>
+    <t>69,79%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>83,33%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11C404-21E2-4137-8BFD-A9AB0CFCEF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BF8F-DB1D-4BD7-9915-745C5E97424E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1277,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1292,13 +1304,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1307,13 +1319,13 @@
         <v>1945</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1322,13 +1334,13 @@
         <v>2911</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,13 +1355,13 @@
         <v>4920</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1358,13 +1370,13 @@
         <v>6516</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -1373,18 +1385,18 @@
         <v>11436</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1396,13 +1408,13 @@
         <v>16796</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -1411,13 +1423,13 @@
         <v>33632</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -1426,19 +1438,19 @@
         <v>50428</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1447,13 +1459,13 @@
         <v>6973</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1462,13 +1474,13 @@
         <v>8004</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1477,13 +1489,13 @@
         <v>14977</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,13 +1510,13 @@
         <v>23769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -1513,13 +1525,13 @@
         <v>41636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -1528,18 +1540,18 @@
         <v>65405</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1563,13 @@
         <v>27905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1566,13 +1578,13 @@
         <v>66554</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -1581,19 +1593,19 @@
         <v>94458</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -1602,13 +1614,13 @@
         <v>3158</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1617,13 +1629,13 @@
         <v>10552</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1632,13 +1644,13 @@
         <v>13710</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1665,13 @@
         <v>31063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -1668,13 +1680,13 @@
         <v>77106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>101</v>
@@ -1683,18 +1695,18 @@
         <v>108168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1706,13 +1718,13 @@
         <v>18917</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -1721,13 +1733,13 @@
         <v>39797</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -1736,19 +1748,19 @@
         <v>58714</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1757,13 +1769,13 @@
         <v>2925</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1772,13 +1784,13 @@
         <v>4240</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1787,13 +1799,13 @@
         <v>7165</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1820,13 @@
         <v>21842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -1823,13 +1835,13 @@
         <v>44037</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -1838,18 +1850,18 @@
         <v>65879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1861,13 +1873,13 @@
         <v>26385</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -1876,13 +1888,13 @@
         <v>54480</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -1891,19 +1903,19 @@
         <v>80865</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1912,13 +1924,13 @@
         <v>8572</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1927,13 +1939,13 @@
         <v>5250</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1942,13 +1954,13 @@
         <v>13821</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1975,13 @@
         <v>34957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -1978,13 +1990,13 @@
         <v>59730</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -1993,13 +2005,13 @@
         <v>94686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2028,13 @@
         <v>93957</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -2031,13 +2043,13 @@
         <v>199034</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>274</v>
@@ -2046,19 +2058,19 @@
         <v>292991</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -2067,13 +2079,13 @@
         <v>22593</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -2082,13 +2094,13 @@
         <v>29990</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2097,13 +2109,13 @@
         <v>52584</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2130,13 @@
         <v>116550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>211</v>
@@ -2133,13 +2145,13 @@
         <v>229024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -2148,18 +2160,18 @@
         <v>345575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7B6AEC-356D-482E-8A7B-BAF28857D819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D69859C-510E-41E7-9D28-09087D8D2ECD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2304,10 +2316,10 @@
         <v>4204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2319,10 +2331,10 @@
         <v>19068</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2334,19 +2346,19 @@
         <v>23273</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2355,13 +2367,13 @@
         <v>1108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2370,13 +2382,13 @@
         <v>2007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2385,13 +2397,13 @@
         <v>3115</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2418,13 @@
         <v>5312</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -2421,13 +2433,13 @@
         <v>21075</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2436,18 +2448,18 @@
         <v>26388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2459,13 +2471,13 @@
         <v>15860</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -2474,13 +2486,13 @@
         <v>45978</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -2489,19 +2501,19 @@
         <v>61838</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2510,10 +2522,10 @@
         <v>2849</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>148</v>
@@ -2561,13 +2573,13 @@
         <v>18709</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -2576,13 +2588,13 @@
         <v>51077</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -2591,18 +2603,18 @@
         <v>69787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2656,7 +2668,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>14</v>
@@ -2716,13 +2728,13 @@
         <v>47262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -2731,13 +2743,13 @@
         <v>86898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -2746,18 +2758,18 @@
         <v>134159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2811,7 +2823,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -2871,13 +2883,13 @@
         <v>29564</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -2886,13 +2898,13 @@
         <v>54715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>79</v>
@@ -2901,18 +2913,18 @@
         <v>84278</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2936,13 @@
         <v>22835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2939,13 +2951,13 @@
         <v>81438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -2954,19 +2966,19 @@
         <v>104272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
@@ -2975,13 +2987,13 @@
         <v>10618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2990,13 +3002,13 @@
         <v>14297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -3005,13 +3017,13 @@
         <v>24915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3038,13 @@
         <v>33453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -3041,13 +3053,13 @@
         <v>95735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -3056,13 +3068,13 @@
         <v>129187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3091,13 @@
         <v>94011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>236</v>
@@ -3094,13 +3106,13 @@
         <v>259681</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -3109,19 +3121,19 @@
         <v>353692</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>39</v>
@@ -3130,13 +3142,13 @@
         <v>40288</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -3145,13 +3157,13 @@
         <v>49819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -3160,13 +3172,13 @@
         <v>90107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3193,13 @@
         <v>134299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>281</v>
@@ -3196,13 +3208,13 @@
         <v>309500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -3211,18 +3223,18 @@
         <v>443799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A97-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45601EAA-B09F-46C5-888F-E90F45301BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E39EDFF-10F6-44AE-920F-0D916FC4AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EB79F90-2C9B-445C-B98D-A32D2D28605E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9397740-7F7F-4547-8E9C-440949BC9931}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>80,38%</t>
   </si>
   <si>
-    <t>28,53%</t>
+    <t>23,34%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,10 @@
     <t>74,55%</t>
   </si>
   <si>
-    <t>46,43%</t>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +105,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,47%</t>
+    <t>76,66%</t>
   </si>
   <si>
     <t>29,85%</t>
@@ -114,181 +117,178 @@
     <t>25,45%</t>
   </si>
   <si>
-    <t>53,57%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>79,06%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,115 +297,115 @@
     <t>75,48%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>79,14%</t>
@@ -417,16 +417,16 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>69,79%</t>
+    <t>69,93%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>20,86%</t>
@@ -438,286 +438,286 @@
     <t>9,52%</t>
   </si>
   <si>
-    <t>30,21%</t>
+    <t>30,07%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>74,73%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BF8F-DB1D-4BD7-9915-745C5E97424E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351BD54-AF70-443D-9848-EF093B6B9D6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1289,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1304,13 +1304,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1319,13 +1319,13 @@
         <v>1945</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1334,13 +1334,13 @@
         <v>2911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1355,13 @@
         <v>4920</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1370,13 +1370,13 @@
         <v>6516</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -1385,18 +1385,18 @@
         <v>11436</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1408,13 +1408,13 @@
         <v>16796</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -1423,13 +1423,13 @@
         <v>33632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -1438,19 +1438,19 @@
         <v>50428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1459,13 +1459,13 @@
         <v>6973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1474,13 +1474,13 @@
         <v>8004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1489,13 +1489,13 @@
         <v>14977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1510,13 @@
         <v>23769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -1525,13 +1525,13 @@
         <v>41636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -1540,18 +1540,18 @@
         <v>65405</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1563,13 @@
         <v>27905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1578,13 +1578,13 @@
         <v>66554</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -1593,19 +1593,19 @@
         <v>94458</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -1614,13 +1614,13 @@
         <v>3158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1629,13 +1629,13 @@
         <v>10552</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1644,10 +1644,10 @@
         <v>13710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -1665,13 +1665,13 @@
         <v>31063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -1680,13 +1680,13 @@
         <v>77106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>101</v>
@@ -1695,13 +1695,13 @@
         <v>108168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1820,13 +1820,13 @@
         <v>21842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -1835,13 +1835,13 @@
         <v>44037</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -1850,13 +1850,13 @@
         <v>65879</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -1975,13 +1975,13 @@
         <v>34957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -1990,13 +1990,13 @@
         <v>59730</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -2005,13 +2005,13 @@
         <v>94686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -2130,13 +2130,13 @@
         <v>116550</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>211</v>
@@ -2145,13 +2145,13 @@
         <v>229024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>324</v>
@@ -2160,13 +2160,13 @@
         <v>345575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D69859C-510E-41E7-9D28-09087D8D2ECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4E0A03-B211-4D41-B01D-6AEE379D679B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2358,7 +2358,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>131</v>
@@ -2385,7 +2385,7 @@
         <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>133</v>
@@ -2418,13 +2418,13 @@
         <v>5312</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -2433,13 +2433,13 @@
         <v>21075</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -2448,18 +2448,18 @@
         <v>26388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2513,7 +2513,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2573,13 +2573,13 @@
         <v>18709</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -2588,13 +2588,13 @@
         <v>51077</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -2603,18 +2603,18 @@
         <v>69787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>14</v>
@@ -2728,13 +2728,13 @@
         <v>47262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -2743,13 +2743,13 @@
         <v>86898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -2758,13 +2758,13 @@
         <v>134159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2823,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -2883,13 +2883,13 @@
         <v>29564</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -2898,13 +2898,13 @@
         <v>54715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>79</v>
@@ -2913,13 +2913,13 @@
         <v>84278</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,7 +2978,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
@@ -3038,13 +3038,13 @@
         <v>33453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -3053,13 +3053,13 @@
         <v>95735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -3068,13 +3068,13 @@
         <v>129187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3133,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>40288</v>
+        <v>40289</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>218</v>
@@ -3190,16 +3190,16 @@
         <v>131</v>
       </c>
       <c r="D21" s="7">
-        <v>134299</v>
+        <v>134300</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>281</v>
@@ -3208,13 +3208,13 @@
         <v>309500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -3223,13 +3223,13 @@
         <v>443799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
